--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -42,6 +42,201 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>SERETIDE INHAELER 125/25 MC</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>جل هير كود 185 مل</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
   </si>
   <si>
     <t>Saturday, 7 June, 2025 6:22 PM</t>
@@ -254,10 +449,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +461,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +869,631 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>18</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>33</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>34</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>38</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>39</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>42</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>43</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>46</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>47</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>46</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>20</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>20</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>60</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>20</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>47</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>64</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>46</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>47</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>70</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>47</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>71</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>46</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>47</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>74</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>772.61000000000001</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>76</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>77</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>78</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +1507,95 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -239,7 +239,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 6:22 PM</t>
+    <t>Saturday, 7 June, 2025 6:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -122,6 +122,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>-12.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -179,6 +194,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>SULBIN 1.5GM VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
@@ -194,9 +221,6 @@
     <t>6:1</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -236,10 +260,22 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 7 June, 2025 6:23 PM</t>
+    <t>5.6000</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>5.4000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>Saturday, 7 June, 2025 7:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1128,7 +1164,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1137,14 +1173,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1154,14 +1190,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1170,20 +1206,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1194,7 +1230,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1210,21 +1246,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1236,14 +1272,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1253,14 +1289,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1269,7 +1305,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1286,14 +1322,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1302,14 +1338,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1319,14 +1355,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1335,7 +1371,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1348,15 +1384,15 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1368,31 +1404,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,28 +1437,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1434,66 +1470,165 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>77</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>78</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>52</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>79</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>51</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>52</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>85</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>51</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>52</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>75</v>
       </c>
-      <c t="s" r="Q24" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>772.61000000000001</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>76</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>77</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>78</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>871.61000000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>88</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>89</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>90</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1592,10 +1727,25 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -44,22 +44,58 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
   </si>
   <si>
     <t>CLARITINE 10MG 20 TAB.</t>
@@ -113,9 +149,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -125,16 +158,16 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>4:2</t>
+    <t>4:1</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>-12.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
   </si>
   <si>
     <t>OTAL EAR DROPS 5 ML</t>
@@ -164,9 +197,6 @@
     <t>SERETIDE INHAELER 125/25 MC</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -224,6 +254,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8694:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -254,16 +296,19 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>5.6000</t>
-  </si>
-  <si>
-    <t>2:1</t>
+    <t>9.6000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -272,10 +317,16 @@
     <t>5.4000</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>Saturday, 7 June, 2025 7:15 PM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 7 June, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -949,7 +1000,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -959,14 +1010,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1015,7 +1066,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1025,14 +1076,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1041,7 +1092,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1058,14 +1109,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1074,14 +1125,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1091,11 +1142,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1107,14 +1158,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1124,14 +1175,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1140,14 +1191,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1157,14 +1208,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1173,14 +1224,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1190,14 +1241,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1206,14 +1257,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1223,14 +1274,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1239,31 +1290,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1272,14 +1323,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1289,14 +1340,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1305,14 +1356,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1345,13 +1396,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1362,7 +1413,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1378,7 +1429,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1395,7 +1446,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1411,7 +1462,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1421,7 +1472,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1444,24 +1495,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1470,31 +1521,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1503,31 +1554,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1543,24 +1594,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1576,59 +1627,257 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>871.61000000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>88</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>52</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>62</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>89</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>92</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>62</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>52</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>62</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>96</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>52</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>62</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>83</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>100</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>52</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>62</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>89</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>102</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>52</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>62</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>103</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1056.1099999999999</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>105</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>106</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>107</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1742,10 +1991,40 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -158,45 +158,45 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>4:1</t>
+    <t>4:0</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>0.0000</t>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>SERETIDE INHAELER 125/25 MC</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>SERETIDE INHAELER 125/25 MC</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -308,7 +308,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>9.6000</t>
+    <t>11.6000</t>
+  </si>
+  <si>
+    <t>5:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -326,7 +329,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 7:18 PM</t>
+    <t>Saturday, 7 June, 2025 7:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1314,7 +1317,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1323,14 +1326,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1340,11 +1343,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>32</v>
@@ -1356,14 +1359,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1373,11 +1376,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1389,14 +1392,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1429,7 +1432,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1660,7 +1663,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1726,7 +1729,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1759,7 +1762,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1776,7 +1779,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1785,14 +1788,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1806,7 +1809,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -1818,14 +1821,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1835,11 +1838,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -1847,13 +1850,13 @@
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="P34" s="13">
-        <v>1056.1099999999999</v>
+        <v>1070.1099999999999</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c t="s" r="A35" s="14">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1861,13 +1864,13 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c t="s" r="G35" s="15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c t="s" r="K35" s="17">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -329,7 +329,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 7:26 PM</t>
+    <t>Saturday, 7 June, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -248,10 +248,13 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>16.8300</t>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -308,10 +311,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>11.6000</t>
-  </si>
-  <si>
-    <t>5:1</t>
+    <t>15.6000</t>
+  </si>
+  <si>
+    <t>7:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -329,7 +332,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 7:28 PM</t>
+    <t>Saturday, 7 June, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1581,7 +1584,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1590,14 +1593,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1607,11 +1610,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1623,7 +1626,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1640,11 +1643,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>32</v>
@@ -1656,7 +1659,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1673,11 +1676,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1689,14 +1692,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1706,11 +1709,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>32</v>
@@ -1722,7 +1725,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1739,11 +1742,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1755,7 +1758,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1772,14 +1775,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,7 +1791,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1805,11 +1808,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -1821,7 +1824,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1838,11 +1841,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -1850,13 +1853,13 @@
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="P34" s="13">
-        <v>1070.1099999999999</v>
+        <v>1107.77</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c t="s" r="A35" s="14">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1864,13 +1867,13 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c t="s" r="G35" s="15">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c t="s" r="K35" s="17">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -284,9 +284,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
@@ -332,7 +329,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 7:31 PM</t>
+    <t>Saturday, 7 June, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1680,10 +1677,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1692,14 +1689,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1709,11 +1706,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>32</v>
@@ -1725,7 +1722,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1742,11 +1739,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1758,7 +1755,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1779,10 +1776,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1791,7 +1788,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1812,7 +1809,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>22</v>
@@ -1824,7 +1821,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1841,11 +1838,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -1853,13 +1850,13 @@
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="P34" s="13">
-        <v>1107.77</v>
+        <v>1113.77</v>
       </c>
       <c r="Q34" s="13"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c t="s" r="A35" s="14">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -1867,13 +1864,13 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c t="s" r="G35" s="15">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
       <c t="s" r="K35" s="17">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>SULBIN 1.5GM VIAL</t>
@@ -1465,7 +1465,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1482,7 +1482,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1850,7 +1850,7 @@
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="P34" s="13">
-        <v>1113.77</v>
+        <v>1136.77</v>
       </c>
       <c r="Q34" s="13"/>
     </row>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>12.5000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -128,7 +137,10 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>EMETREX 20 TAB.</t>
@@ -155,6 +167,21 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -182,24 +209,30 @@
     <t>PETRO 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
     <t>22.7700</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>SERETIDE INHAELER 125/25 MC</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>228.00</t>
   </si>
   <si>
@@ -284,6 +317,12 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
@@ -317,7 +356,10 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>5.4000</t>
+    <t>8.4000</t>
+  </si>
+  <si>
+    <t>2:1</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -329,7 +371,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 7:32 PM</t>
+    <t>Saturday, 7 June, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1069,7 +1111,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1079,14 +1121,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1095,14 +1137,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1119,7 +1161,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1128,14 +1170,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1145,14 +1187,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1161,14 +1203,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1201,7 +1243,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1218,7 +1260,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1227,7 +1269,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1244,11 +1286,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1260,14 +1302,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,14 +1319,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1293,14 +1335,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1317,7 +1359,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1339,18 +1381,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1359,14 +1401,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,11 +1418,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1392,20 +1434,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1416,7 +1458,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1432,7 +1474,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1449,7 +1491,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1465,7 +1507,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1475,14 +1517,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1491,31 +1533,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1524,14 +1566,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,14 +1583,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1557,14 +1599,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,14 +1616,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1614,7 +1656,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1630,13 +1672,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1647,7 +1689,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1663,24 +1705,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>49</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1689,31 +1731,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1722,31 +1764,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1755,31 +1797,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,31 +1830,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1821,66 +1863,165 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1136.77</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>106</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>107</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>108</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>111</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>73</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>54</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>95</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>114</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>73</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>54</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>101</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>117</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>73</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>54</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>118</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1276.1700000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>120</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>121</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>122</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2024,10 +2165,25 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -116,9 +125,6 @@
     <t>110.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -131,84 +137,105 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
@@ -287,9 +314,6 @@
     <t>50.4900</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -356,10 +380,10 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>8.4000</t>
-  </si>
-  <si>
-    <t>2:1</t>
+    <t>11.4000</t>
+  </si>
+  <si>
+    <t>3:1</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -371,7 +395,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 7:44 PM</t>
+    <t>Saturday, 7 June, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1177,7 +1201,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1187,14 +1211,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1203,14 +1227,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1220,14 +1244,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1236,14 +1260,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1253,14 +1277,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1269,14 +1293,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1286,11 +1310,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1302,14 +1326,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1319,14 +1343,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1342,7 +1366,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1359,7 +1383,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1375,24 +1399,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1401,14 +1425,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1418,11 +1442,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1434,14 +1458,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1451,14 +1475,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1467,31 +1491,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1500,14 +1524,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1517,14 +1541,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1533,31 +1557,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1566,14 +1590,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1607,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,14 +1623,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,14 +1640,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1632,31 +1656,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1665,14 +1689,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1682,14 +1706,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1698,14 +1722,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,14 +1739,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1731,14 +1755,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,11 +1772,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1764,31 +1788,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1797,31 +1821,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1830,31 +1854,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,31 +1887,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1896,31 +1920,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,31 +1953,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>116</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,66 +1986,165 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>119</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1276.1700000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>82</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>62</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>103</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>120</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c t="s" r="Q37" s="12">
         <v>121</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>122</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>82</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>62</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>109</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>125</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>82</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>62</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>126</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1410.9300000000001</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>128</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>129</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>130</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2180,10 +2303,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -167,6 +176,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>ESMORAP 40MG 14 CAPS</t>
   </si>
   <si>
@@ -218,6 +236,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -257,9 +284,6 @@
     <t>SERETIDE INHAELER 125/25 MC</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>228.00</t>
   </si>
   <si>
@@ -395,7 +419,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 8:20 PM</t>
+    <t>Saturday, 7 June, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1267,7 +1291,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1277,11 +1301,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1293,14 +1317,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1310,11 +1334,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1326,14 +1350,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1343,14 +1367,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1366,7 +1390,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1376,14 +1400,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1399,7 +1423,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1432,7 +1456,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1442,11 +1466,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1458,7 +1482,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1475,14 +1499,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1491,31 +1515,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,14 +1548,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1541,14 +1565,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1557,28 +1581,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>33</v>
@@ -1590,14 +1614,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1607,11 +1631,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1623,14 +1647,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,14 +1664,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1656,28 +1680,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>33</v>
@@ -1689,14 +1713,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,14 +1730,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1722,14 +1746,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1739,11 +1763,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>33</v>
@@ -1755,31 +1779,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,11 +1829,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>33</v>
@@ -1821,14 +1845,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1838,14 +1862,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,14 +1878,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,11 +1895,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1887,7 +1911,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1900,15 +1924,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>33</v>
@@ -1920,31 +1944,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,31 +1977,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1986,31 +2010,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2019,31 +2043,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2052,31 +2076,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>124</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2085,66 +2109,165 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>127</v>
       </c>
-      <c t="s" r="Q39" s="12">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>76</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>68</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>111</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>130</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>76</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>68</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>117</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>133</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>76</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>68</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>134</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1410.9300000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>128</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>129</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
-        <v>130</v>
-      </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1522.8</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>136</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>137</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>138</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2318,10 +2441,25 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -137,13 +146,13 @@
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>105.00</t>
   </si>
   <si>
-    <t>34.6500</t>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
@@ -260,9 +269,6 @@
     <t>PETRO 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
@@ -419,7 +425,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 8:29 PM</t>
+    <t>Saturday, 7 June, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,7 +1165,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1192,7 +1198,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1202,14 +1208,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1218,14 +1224,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1235,14 +1241,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1258,7 +1264,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1268,14 +1274,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1291,7 +1297,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1308,7 +1314,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1324,7 +1330,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1334,11 +1340,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1350,14 +1356,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1367,14 +1373,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1383,14 +1389,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1400,14 +1406,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1423,7 +1429,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1433,14 +1439,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1456,7 +1462,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1489,7 +1495,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1522,7 +1528,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1532,11 +1538,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1548,14 +1554,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1565,14 +1571,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1588,24 +1594,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1614,31 +1620,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1647,14 +1653,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1664,7 +1670,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1697,14 +1703,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1713,14 +1719,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1730,14 +1736,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1746,14 +1752,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1763,14 +1769,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1779,31 +1785,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1812,31 +1818,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1845,14 +1851,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1862,14 +1868,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1878,14 +1884,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1895,14 +1901,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1911,14 +1917,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1928,14 +1934,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1944,14 +1950,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1961,14 +1967,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1977,14 +1983,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2010,31 +2016,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2043,31 +2049,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2076,31 +2082,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2109,31 +2115,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2142,31 +2148,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2175,31 +2181,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>131</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>132</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2208,66 +2214,99 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>135</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1522.8</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>79</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>71</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>136</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q43" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1586.1600000000001</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
         <v>138</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>139</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>140</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2456,10 +2495,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -167,6 +167,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -248,9 +260,6 @@
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>19.8000</t>
   </si>
   <si>
@@ -425,7 +434,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 8:32 PM</t>
+    <t>Saturday, 7 June, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1429,7 +1438,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1439,14 +1448,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1455,14 +1464,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1472,14 +1481,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1488,14 +1497,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1505,11 +1514,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1538,11 +1547,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1571,11 +1580,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1587,14 +1596,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1604,14 +1613,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1620,28 +1629,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>36</v>
@@ -1653,20 +1662,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1677,7 +1686,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1703,11 +1712,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1736,14 +1745,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1776,7 +1785,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1792,7 +1801,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1802,14 +1811,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1818,20 +1827,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1858,13 +1867,13 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1891,7 +1900,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1924,7 +1933,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1974,7 +1983,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1990,7 +1999,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2049,20 +2058,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2073,7 +2082,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2089,13 +2098,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2106,7 +2115,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2115,31 +2124,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2148,20 +2157,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2172,7 +2181,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2188,24 +2197,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>131</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2221,17 +2230,17 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2254,59 +2263,92 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>137</v>
       </c>
-      <c t="s" r="Q43" s="12">
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>138</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>53</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>75</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>139</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1586.1600000000001</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>138</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>139</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>140</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1730.1600000000001</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>141</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>142</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>143</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2500,10 +2542,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -434,7 +434,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 8:33 PM</t>
+    <t>Saturday, 7 June, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -365,6 +374,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -425,6 +443,18 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -434,7 +464,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 8:34 PM</t>
+    <t>Saturday, 7 June, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1768,7 +1798,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1778,14 +1808,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1794,14 +1824,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1818,7 +1848,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1834,7 +1864,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1844,14 +1874,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1860,20 +1890,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1906,7 +1936,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1933,7 +1963,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1966,7 +1996,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1976,14 +2006,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1992,14 +2022,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2016,7 +2046,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2032,7 +2062,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2042,14 +2072,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2075,14 +2105,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2091,20 +2121,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2115,7 +2145,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2131,7 +2161,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2148,7 +2178,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>124</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2157,14 +2187,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2174,11 +2204,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>36</v>
@@ -2190,7 +2220,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2207,14 +2237,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2223,14 +2253,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2240,14 +2270,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2273,14 +2303,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>137</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2306,49 +2336,148 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>140</v>
       </c>
-      <c t="s" r="Q44" s="12">
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>141</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>53</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>75</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>128</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>144</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>145</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>75</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>146</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>148</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>53</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>75</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>149</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1730.1600000000001</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>141</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>142</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>143</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1870.1600000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>151</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>152</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>153</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2547,10 +2676,25 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -464,7 +473,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 8:36 PM</t>
+    <t>Saturday, 7 June, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1996,7 +2005,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2029,7 +2038,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2039,14 +2048,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2055,14 +2064,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2079,7 +2088,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2095,7 +2104,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,14 +2114,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2138,14 +2147,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,20 +2163,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2178,7 +2187,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2227,7 +2236,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2244,7 +2253,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,14 +2262,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2270,14 +2279,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2286,14 +2295,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2310,7 +2319,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2336,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2369,7 +2378,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2392,7 +2401,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2402,14 +2411,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2418,14 +2427,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2442,42 +2451,75 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>151</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>53</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>75</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>152</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1870.1600000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>151</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>152</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>153</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>1891.1600000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>154</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>155</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>156</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2691,10 +2733,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -407,10 +407,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
+    <t>24.0000</t>
   </si>
   <si>
     <t>ريكسونا بليه بودر دراي</t>
@@ -2286,7 +2283,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2292,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,11 +2309,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>36</v>
@@ -2328,7 +2325,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2345,11 +2342,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2361,7 +2358,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2382,10 +2379,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>142</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>143</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2394,7 +2391,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2415,10 +2412,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>146</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2427,14 +2424,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2444,11 +2441,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2460,7 +2457,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2477,11 +2474,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>36</v>
@@ -2489,13 +2486,13 @@
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="P49" s="13">
-        <v>1891.1600000000001</v>
+        <v>1897.1600000000001</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c t="s" r="A50" s="14">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -2503,13 +2500,13 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c t="s" r="G50" s="15">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="16"/>
       <c t="s" r="K50" s="17">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -95,6 +95,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -152,19 +164,25 @@
     <t>69.3000</t>
   </si>
   <si>
-    <t>0:2</t>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
   </si>
   <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>23.7600</t>
   </si>
   <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
@@ -182,195 +200,192 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>35.6400</t>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>SERETIDE INHAELER 125/25 MC</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>SULBIN 1.5GM VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>50.4900</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>SERETIDE INHAELER 125/25 MC</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>SULBIN 1.5GM VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>VENTOCOUGH SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -383,6 +398,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ترمومتر ديجتال</t>
   </si>
   <si>
@@ -401,6 +428,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -413,9 +452,6 @@
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>37.00</t>
   </si>
   <si>
@@ -443,10 +479,10 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>11.4000</t>
-  </si>
-  <si>
-    <t>3:1</t>
+    <t>14.4000</t>
+  </si>
+  <si>
+    <t>4:1</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -467,10 +503,16 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 7 June, 2025 8:37 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>Saturday, 7 June, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1243,7 +1285,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1253,11 +1295,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1269,14 +1311,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1293,7 +1335,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1319,14 +1361,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1335,14 +1377,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1352,14 +1394,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1368,14 +1410,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1385,14 +1427,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1401,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1418,14 +1460,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1441,7 +1483,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1451,14 +1493,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1467,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1484,14 +1526,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1500,14 +1542,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1517,14 +1559,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1533,14 +1575,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1557,7 +1599,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1573,7 +1615,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1583,14 +1625,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1599,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1616,11 +1658,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1632,14 +1674,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1649,7 +1691,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1689,7 +1731,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1705,24 +1747,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1731,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1748,14 +1790,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1764,31 +1806,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1797,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1837,7 +1879,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1847,14 +1889,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1863,14 +1905,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1880,11 +1922,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1896,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1913,14 +1955,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1929,31 +1971,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1962,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1979,14 +2021,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1995,31 +2037,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2028,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2045,14 +2087,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2061,14 +2103,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2078,14 +2120,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2094,14 +2136,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2111,14 +2153,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2127,14 +2169,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2144,14 +2186,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2160,14 +2202,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2177,14 +2219,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2193,31 +2235,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2226,31 +2268,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2259,20 +2301,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2283,7 +2325,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2299,24 +2341,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,31 +2367,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,31 +2400,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2398,24 +2440,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>145</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2431,24 +2473,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2457,66 +2499,231 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>152</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>1897.1600000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>59</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>80</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>127</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>153</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c t="s" r="Q49" s="12">
         <v>154</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>155</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>59</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>80</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>144</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>158</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>159</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>80</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>160</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>162</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>59</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>80</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>163</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>164</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>165</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>80</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>166</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2114.3049999999998</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>167</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>168</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>169</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2735,10 +2942,35 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -512,7 +512,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 8:39 PM</t>
+    <t>Saturday, 7 June, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -410,15 +410,6 @@
     <t>96.0000</t>
   </si>
   <si>
-    <t>ترمومتر ديجتال</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -485,18 +476,6 @@
     <t>4:1</t>
   </si>
   <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -512,7 +491,7 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 8:54 PM</t>
+    <t>Saturday, 7 June, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2374,7 +2353,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2384,11 +2363,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>40</v>
@@ -2400,14 +2379,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2424,7 +2403,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2440,7 +2419,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2457,7 +2436,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2473,7 +2452,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2490,7 +2469,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2516,14 +2495,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2549,7 +2528,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2582,14 +2561,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>157</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,14 +2577,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2615,115 +2594,49 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2050.3049999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>160</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
         <v>161</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="A52" s="7">
-        <v>46</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c t="s" r="C52" s="8">
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
         <v>162</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c t="s" r="H52" s="9">
-        <v>59</v>
-      </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c t="s" r="L52" s="10">
-        <v>80</v>
-      </c>
-      <c r="M52" s="10"/>
-      <c t="s" r="N52" s="8">
-        <v>163</v>
-      </c>
-      <c r="O52" s="8"/>
-      <c t="s" r="P52" s="11">
-        <v>120</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="A53" s="7">
-        <v>47</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c t="s" r="C53" s="8">
-        <v>164</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c t="s" r="H53" s="9">
-        <v>165</v>
-      </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c t="s" r="L53" s="10">
-        <v>80</v>
-      </c>
-      <c r="M53" s="10"/>
-      <c t="s" r="N53" s="8">
-        <v>166</v>
-      </c>
-      <c r="O53" s="8"/>
-      <c t="s" r="P53" s="11">
-        <v>145</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2114.3049999999998</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>167</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>168</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>169</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2957,20 +2870,10 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -236,6 +245,21 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -251,9 +275,6 @@
     <t>14:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -263,9 +284,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -476,12 +494,18 @@
     <t>4:1</t>
   </si>
   <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -489,6 +513,9 @@
   </si>
   <si>
     <t>24.00</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
     <t>Saturday, 7 June, 2025 8:55 PM</t>
@@ -1264,7 +1291,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1274,11 +1301,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1290,14 +1317,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1330,7 +1357,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1340,14 +1367,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1356,14 +1383,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1373,14 +1400,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1396,7 +1423,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1406,14 +1433,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1429,7 +1456,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1446,7 +1473,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1462,7 +1489,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1479,7 +1506,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1495,7 +1522,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1512,7 +1539,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1528,7 +1555,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1538,14 +1565,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1554,14 +1581,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1571,14 +1598,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1587,14 +1614,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1604,14 +1631,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1620,7 +1647,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1637,14 +1664,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1660,7 +1687,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1693,7 +1720,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1726,7 +1753,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1736,11 +1763,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1752,14 +1779,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1769,14 +1796,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1809,7 +1836,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1825,7 +1852,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1835,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1851,31 +1878,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1884,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1901,11 +1928,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1917,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,14 +1961,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1950,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1967,11 +1994,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1983,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2000,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2016,31 +2043,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,14 +2076,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2073,7 +2100,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2089,13 +2116,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2106,7 +2133,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2122,7 +2149,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2139,7 +2166,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2155,7 +2182,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2165,14 +2192,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2188,7 +2215,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2205,7 +2232,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2264,14 +2291,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,14 +2307,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2297,14 +2324,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2313,31 +2340,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2346,31 +2373,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2379,14 +2406,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2396,14 +2423,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2412,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2436,7 +2463,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2452,7 +2479,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2469,7 +2496,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2485,7 +2512,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>151</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2518,7 +2545,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2528,14 +2555,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>154</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2551,7 +2578,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2561,14 +2588,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>62</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,49 +2621,181 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2050.3049999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>160</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>161</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>39</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>80</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>162</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>164</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>62</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>80</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>162</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>166</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>80</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>167</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>168</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>122</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>80</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>144</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2160.9949999999999</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>169</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>170</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>171</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2870,10 +3029,30 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -428,6 +428,18 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">ترمومتر  زيئبق </t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
     <t>جل هير كود 185 مل</t>
   </si>
   <si>
@@ -479,10 +491,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>15.6000</t>
-  </si>
-  <si>
-    <t>7:1</t>
+    <t>19.6000</t>
+  </si>
+  <si>
+    <t>9:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -518,7 +530,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 8:55 PM</t>
+    <t>Saturday, 7 June, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2446,7 +2458,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2456,11 +2468,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>43</v>
@@ -2472,14 +2484,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2489,14 +2501,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2505,14 +2517,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,11 +2534,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>43</v>
@@ -2538,7 +2550,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2555,14 +2567,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2588,14 +2600,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>157</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2604,7 +2616,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2621,14 +2633,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2670,7 +2682,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2687,14 +2699,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2710,7 +2722,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2720,11 +2732,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>43</v>
@@ -2743,7 +2755,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,49 +2765,115 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q55" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>169</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>170</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>80</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>171</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2160.9949999999999</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>169</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>170</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
-        <v>171</v>
-      </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>122</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>80</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>148</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2264.9949999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>173</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>174</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>175</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3049,10 +3127,20 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -137,15 +137,39 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>59.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -239,6 +263,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
@@ -248,9 +281,6 @@
     <t>FRESH COOL ORAL GEL 30ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -281,6 +311,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -491,10 +530,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>19.6000</t>
-  </si>
-  <si>
-    <t>9:1</t>
+    <t>31.6000</t>
+  </si>
+  <si>
+    <t>15:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -530,7 +569,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:01 PM</t>
+    <t>Saturday, 7 June, 2025 9:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1445,14 +1484,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1461,14 +1500,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1478,14 +1517,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1494,14 +1533,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1511,14 +1550,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1527,14 +1566,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1544,14 +1583,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1560,14 +1599,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1577,11 +1616,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1593,14 +1632,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1610,11 +1649,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>32</v>
@@ -1626,14 +1665,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1650,7 +1689,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1666,7 +1705,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1676,14 +1715,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1692,14 +1731,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1709,14 +1748,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1725,14 +1764,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1742,14 +1781,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1758,14 +1797,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1775,11 +1814,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1791,14 +1830,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1808,11 +1847,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1824,31 +1863,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1857,14 +1896,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1874,14 +1913,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1890,31 +1929,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1923,20 +1962,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1947,7 +1986,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1963,7 +2002,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1973,14 +2012,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1989,31 +2028,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2022,14 +2061,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2039,14 +2078,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2055,14 +2094,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2072,11 +2111,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2088,14 +2127,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2105,14 +2144,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2121,31 +2160,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2154,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2178,7 +2217,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2194,7 +2233,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2211,7 +2250,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2227,7 +2266,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2237,14 +2276,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2253,31 +2292,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2286,14 +2325,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2303,14 +2342,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2319,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2336,14 +2375,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2359,7 +2398,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2369,14 +2408,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2385,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2402,14 +2441,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2418,31 +2457,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2451,31 +2490,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>43</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2484,31 +2523,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2517,31 +2556,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2550,31 +2589,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2583,31 +2622,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2623,13 +2662,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2640,7 +2679,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2656,24 +2695,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2682,31 +2721,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>164</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2715,31 +2754,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2748,28 +2787,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2781,31 +2820,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>43</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2814,66 +2853,198 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2264.9949999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>173</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>174</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>175</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>178</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>39</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>90</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>179</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>181</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>70</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>90</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>179</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>182</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>183</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>90</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>184</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>185</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>135</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>90</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>161</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2490.9949999999999</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>186</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>187</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>188</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3137,10 +3308,30 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -569,7 +569,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:02 PM</t>
+    <t>Saturday, 7 June, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -236,6 +236,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>EMETREX 20 TAB.</t>
   </si>
   <si>
@@ -458,9 +470,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -569,7 +578,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:09 PM</t>
+    <t>Saturday, 7 June, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1804,7 +1813,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1847,11 +1856,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,11 +1889,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1896,14 +1905,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1962,31 +1971,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2002,21 +2011,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>46</v>
@@ -2028,20 +2037,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2068,21 +2077,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>46</v>
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,14 +2136,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2144,11 +2153,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2160,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,11 +2186,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2193,14 +2202,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2217,7 +2226,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2233,7 +2242,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2299,21 +2308,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>46</v>
@@ -2325,7 +2334,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2338,15 +2347,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>46</v>
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,11 +2384,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>46</v>
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2408,11 +2417,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>46</v>
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2466,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2580,7 +2589,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2596,13 +2605,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2635,15 +2644,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>46</v>
@@ -2655,7 +2664,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2668,15 +2677,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>46</v>
@@ -2695,21 +2704,21 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>46</v>
@@ -2721,20 +2730,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2745,7 +2754,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2761,13 +2770,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2778,7 +2787,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2794,13 +2803,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2811,7 +2820,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2833,18 +2842,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>174</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2866,11 +2875,11 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2893,24 +2902,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q58" s="12">
         <v>180</v>
-      </c>
-      <c t="s" r="Q58" s="12">
-        <v>46</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2926,24 +2935,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2952,31 +2961,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2992,59 +3001,92 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>46</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2490.9949999999999</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>186</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>187</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>188</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>139</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>94</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>164</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2538.9949999999999</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>189</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>190</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>191</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3328,10 +3370,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -311,6 +311,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>HEDERA HELIX SYRAP</t>
   </si>
   <si>
@@ -341,6 +353,9 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -434,6 +449,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
@@ -443,6 +467,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -452,9 +485,6 @@
     <t>50.4900</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -548,10 +578,10 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>14.4000</t>
-  </si>
-  <si>
-    <t>4:1</t>
+    <t>20.4000</t>
+  </si>
+  <si>
+    <t>6:1</t>
   </si>
   <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
@@ -578,7 +608,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:12 PM</t>
+    <t>Saturday, 7 June, 2025 9:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2083,7 +2113,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2094,7 +2124,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2110,21 +2140,21 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>46</v>
@@ -2136,14 +2166,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2153,14 +2183,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2169,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2186,11 +2216,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2202,14 +2232,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2219,11 +2249,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2242,7 +2272,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2252,14 +2282,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2268,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2285,11 +2315,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2301,14 +2331,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,11 +2348,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>46</v>
@@ -2334,31 +2364,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2367,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2384,11 +2414,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>46</v>
@@ -2400,28 +2430,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>46</v>
@@ -2433,14 +2463,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,11 +2480,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>46</v>
@@ -2466,14 +2496,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,14 +2513,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2499,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2516,11 +2546,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>46</v>
@@ -2532,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2553,10 +2583,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2565,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,14 +2612,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2598,14 +2628,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2615,11 +2645,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>46</v>
@@ -2631,28 +2661,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>46</v>
@@ -2664,31 +2694,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>33</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>46</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2697,20 +2727,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2721,7 +2751,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2737,21 +2767,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>46</v>
@@ -2763,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,14 +2810,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,14 +2826,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2813,11 +2843,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>46</v>
@@ -2829,14 +2859,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2846,14 +2876,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2862,14 +2892,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,14 +2909,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>177</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2895,7 +2925,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2912,14 +2942,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2928,14 +2958,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,11 +2975,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>46</v>
@@ -2961,7 +2991,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2978,11 +3008,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3001,7 +3031,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3011,14 +3041,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>46</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3034,7 +3064,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3044,49 +3074,181 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>46</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2538.9949999999999</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>189</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>190</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>191</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>39</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>94</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>192</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>194</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>70</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>94</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>192</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>195</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>196</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>94</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>197</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>198</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>144</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>94</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>174</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2639.0349999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>199</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>200</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>201</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3375,10 +3537,30 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -311,6 +311,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
@@ -392,6 +404,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -545,9 +566,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
@@ -593,6 +611,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -602,13 +629,10 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:39 PM</t>
+    <t>Saturday, 7 June, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2124,7 +2148,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2146,7 +2170,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2157,7 +2181,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2173,21 +2197,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>46</v>
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2249,11 +2273,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,11 +2306,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2315,11 +2339,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2355,7 +2379,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2371,7 +2395,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,14 +2405,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2421,7 +2445,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2437,13 +2461,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2470,7 +2494,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2480,11 +2504,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>46</v>
@@ -2496,28 +2520,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>46</v>
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,11 +2570,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>46</v>
@@ -2562,14 +2586,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,14 +2603,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2595,14 +2619,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,11 +2636,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>46</v>
@@ -2628,14 +2652,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2669,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2685,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,11 +2702,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>46</v>
@@ -2694,14 +2718,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,14 +2751,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2751,7 +2775,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2767,7 +2791,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2777,14 +2801,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2800,24 +2824,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2826,28 +2850,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>46</v>
@@ -2859,7 +2883,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2876,11 +2900,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>46</v>
@@ -2892,14 +2916,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2909,11 +2933,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>46</v>
@@ -2932,7 +2956,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2949,7 +2973,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2965,7 +2989,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2975,11 +2999,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>46</v>
@@ -2991,7 +3015,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3008,14 +3032,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3031,7 +3055,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3041,14 +3065,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>187</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3074,14 +3098,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>190</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3097,7 +3121,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3107,14 +3131,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>193</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>46</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3140,14 +3164,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3173,11 +3197,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>46</v>
@@ -3189,14 +3213,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3206,49 +3230,148 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>46</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2639.0349999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>199</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>200</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>201</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>203</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>70</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>94</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>198</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>204</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>205</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>94</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>132</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>206</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>151</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>94</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>181</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2700.7550000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>207</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>208</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>209</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3557,10 +3680,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -461,6 +461,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>SULBIN 1.5GM VIAL</t>
   </si>
   <si>
@@ -632,7 +641,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:42 PM</t>
+    <t>Saturday, 7 June, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2659,7 +2668,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2692,7 +2701,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2758,7 +2767,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2791,7 +2800,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2874,7 +2883,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2890,13 +2899,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>46</v>
@@ -2949,7 +2958,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2966,11 +2975,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>46</v>
@@ -2989,7 +2998,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2999,11 +3008,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>46</v>
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3036,10 +3045,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3088,7 +3097,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3105,7 +3114,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3131,14 +3140,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>193</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3164,7 +3173,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3187,7 +3196,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>199</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>46</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3220,7 +3229,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3329,49 +3338,82 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>46</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2700.7550000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>207</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>208</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>209</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>154</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>94</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>184</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>2742.335</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>210</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>211</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>212</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3695,10 +3737,15 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -641,7 +641,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:43 PM</t>
+    <t>Saturday, 7 June, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -116,6 +116,12 @@
     <t>8.1600</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -641,7 +647,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:46 PM</t>
+    <t>Saturday, 7 June, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1480,7 +1486,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1490,11 +1496,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1506,14 +1512,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1523,14 +1529,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1539,14 +1545,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1556,14 +1562,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1572,14 +1578,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1589,14 +1595,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1612,7 +1618,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1622,14 +1628,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1638,14 +1644,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1655,14 +1661,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1671,14 +1677,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1688,14 +1694,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1704,14 +1710,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1721,14 +1727,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1737,14 +1743,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1754,14 +1760,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1770,14 +1776,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,14 +1793,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,14 +1809,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,14 +1826,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1836,14 +1842,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1853,14 +1859,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1876,7 +1882,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,14 +1892,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1902,14 +1908,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1919,14 +1925,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1935,14 +1941,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,11 +1958,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1968,14 +1974,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,11 +1991,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2001,14 +2007,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,14 +2024,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2034,14 +2040,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2057,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2074,24 +2080,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,31 +2106,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2139,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2156,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2172,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2189,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,31 +2205,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2232,31 +2238,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2265,14 +2271,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2298,14 +2304,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,11 +2321,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2348,11 +2354,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2371,7 +2377,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,11 +2387,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2397,14 +2403,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,14 +2420,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,14 +2436,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,14 +2453,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2463,14 +2469,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,14 +2486,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,14 +2502,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2519,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,31 +2535,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,31 +2568,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2618,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2793,14 +2799,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,14 +2816,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2826,14 +2832,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,14 +2849,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2859,14 +2865,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2882,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2915,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,31 +2931,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,31 +2964,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2991,31 +2997,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,31 +3030,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,31 +3063,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3097,13 +3103,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3111,10 +3117,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,31 +3129,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,31 +3162,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>196</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,31 +3195,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>198</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>199</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3222,31 +3228,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>46</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3255,31 +3261,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,31 +3294,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3321,31 +3327,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3361,59 +3367,92 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>2742.335</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
-        <v>210</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>211</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>156</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>96</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>186</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>2750.2550000000001</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
         <v>212</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>213</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>214</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3742,10 +3781,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -362,6 +362,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -647,7 +656,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 9:47 PM</t>
+    <t>Saturday, 7 June, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2311,7 +2320,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2328,7 +2337,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2344,7 +2353,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2354,11 +2363,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2370,14 +2379,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2387,11 +2396,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2403,14 +2412,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2420,7 +2429,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2443,7 +2452,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2493,7 +2502,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2509,7 +2518,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2526,7 +2535,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2542,7 +2551,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2552,11 +2561,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>48</v>
@@ -2568,20 +2577,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2614,7 +2623,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2641,7 +2650,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2674,7 +2683,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2707,7 +2716,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2724,7 +2733,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2740,7 +2749,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2750,14 +2759,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2773,7 +2782,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2783,14 +2792,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2839,7 +2848,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2872,7 +2881,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2915,14 +2924,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2955,7 +2964,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2971,13 +2980,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3014,11 +3023,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>48</v>
@@ -3030,7 +3039,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3047,11 +3056,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>48</v>
@@ -3070,7 +3079,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>48</v>
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3117,10 +3126,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3169,7 +3178,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3186,7 +3195,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3245,7 +3254,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3268,7 +3277,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q67" s="12">
         <v>204</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3301,7 +3310,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3344,14 +3353,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3410,49 +3419,82 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>2750.2550000000001</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>212</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>213</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
         <v>214</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>159</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>96</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>189</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>2802.2550000000001</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>215</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>216</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>217</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3786,10 +3828,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -548,7 +548,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>192.0000</t>
   </si>
   <si>
     <t xml:space="preserve">ترمومتر  زيئبق </t>
@@ -656,7 +656,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:01 PM</t>
+    <t>Saturday, 7 June, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2980,7 +2980,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2997,7 +2997,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3464,7 +3464,7 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="P73" s="13">
-        <v>2802.2550000000001</v>
+        <v>2898.2550000000001</v>
       </c>
       <c r="Q73" s="13"/>
     </row>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -203,6 +203,18 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -383,6 +395,9 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -656,7 +671,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:06 PM</t>
+    <t>Saturday, 7 June, 2025 10:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1807,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1802,14 +1817,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1818,14 +1833,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1842,7 +1857,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1875,7 +1890,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1891,7 +1906,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1901,14 +1916,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1917,14 +1932,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1934,14 +1949,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1957,7 +1972,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1967,14 +1982,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1983,14 +1998,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2000,11 +2015,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2016,14 +2031,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2033,11 +2048,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2049,14 +2064,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2066,14 +2081,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2082,14 +2097,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2099,14 +2114,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2115,31 +2130,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2155,21 +2170,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>48</v>
@@ -2181,14 +2196,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2205,7 +2220,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2238,7 +2253,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2260,7 +2275,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2271,7 +2286,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2287,21 +2302,21 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>48</v>
@@ -2313,14 +2328,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2330,11 +2345,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>48</v>
@@ -2346,14 +2361,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2363,14 +2378,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2379,14 +2394,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2396,11 +2411,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2412,14 +2427,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2429,11 +2444,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2445,14 +2460,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2462,14 +2477,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2485,7 +2500,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,14 +2510,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2511,14 +2526,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,11 +2543,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2544,14 +2559,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2561,11 +2576,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>48</v>
@@ -2577,14 +2592,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,14 +2609,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2610,28 +2625,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>48</v>
@@ -2643,14 +2658,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2660,11 +2675,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>48</v>
@@ -2676,28 +2691,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>48</v>
@@ -2709,14 +2724,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2726,11 +2741,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>48</v>
@@ -2742,14 +2757,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2759,14 +2774,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2775,14 +2790,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2792,14 +2807,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2808,14 +2823,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,14 +2840,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2841,14 +2856,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2858,14 +2873,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2891,11 +2906,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>48</v>
@@ -2907,14 +2922,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2924,14 +2939,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2940,14 +2955,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2957,14 +2972,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2973,14 +2988,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2990,14 +3005,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3006,31 +3021,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3039,31 +3054,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3072,7 +3087,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3085,15 +3100,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>48</v>
@@ -3105,28 +3120,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>48</v>
@@ -3138,31 +3153,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3171,20 +3186,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3211,13 +3226,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3225,10 +3240,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3237,31 +3252,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>201</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3270,31 +3285,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>204</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3303,31 +3318,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>48</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3336,31 +3351,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>48</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,31 +3384,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3402,28 +3417,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>137</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>48</v>
@@ -3435,66 +3450,132 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>2898.2550000000001</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>215</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>216</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>217</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>218</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>100</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>142</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>219</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>164</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>100</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>194</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>2962.2550000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>220</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>221</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>222</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3833,10 +3914,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>COLOVERIN D 135MG 30 TAB</t>
   </si>
   <si>
@@ -237,9 +249,6 @@
   </si>
   <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>144.00</t>
@@ -1774,7 +1783,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1784,14 +1793,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1824,7 +1833,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1840,7 +1849,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1850,14 +1859,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1890,7 +1899,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1923,7 +1932,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1939,7 +1948,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1949,14 +1958,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1982,14 +1991,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2022,7 +2031,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2038,7 +2047,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2071,7 +2080,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2104,7 +2113,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2121,7 +2130,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2137,7 +2146,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2147,14 +2156,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2163,31 +2172,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2196,20 +2205,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2236,7 +2245,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2246,14 +2255,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2279,14 +2288,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2295,31 +2304,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2328,20 +2337,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2368,7 +2377,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2401,7 +2410,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2418,7 +2427,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2434,7 +2443,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2543,7 +2552,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2566,7 +2575,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2576,14 +2585,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2616,7 +2625,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2632,7 +2641,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2649,7 +2658,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2665,7 +2674,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>48</v>
@@ -2691,20 +2700,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2731,13 +2740,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2764,7 +2773,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2797,7 +2806,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2830,7 +2839,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2847,7 +2856,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2863,7 +2872,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2873,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2896,7 +2905,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2962,7 +2971,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2995,7 +3004,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3038,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3094,13 +3103,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3111,7 +3120,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3133,15 +3142,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>48</v>
@@ -3153,7 +3162,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3166,15 +3175,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>48</v>
@@ -3193,21 +3202,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>48</v>
@@ -3219,20 +3228,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3240,10 +3249,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3252,31 +3261,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3292,13 +3301,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3309,7 +3318,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3325,24 +3334,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>206</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3358,17 +3367,17 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3391,24 +3400,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>212</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3424,13 +3433,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3457,24 +3466,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3483,31 +3492,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3516,66 +3525,99 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>2962.2550000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>220</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>221</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>222</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>167</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>103</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>197</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>2994.2550000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>223</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>224</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>225</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3924,10 +3966,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -680,7 +680,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:10 PM</t>
+    <t>Saturday, 7 June, 2025 10:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3282,10 +3282,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>41</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3587,7 +3587,7 @@
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="P76" s="13">
-        <v>2994.2550000000001</v>
+        <v>3012.2550000000001</v>
       </c>
       <c r="Q76" s="13"/>
     </row>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -335,9 +344,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -680,7 +686,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:14 PM</t>
+    <t>Saturday, 7 June, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2014,7 +2020,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2024,14 +2030,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2040,14 +2046,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2064,7 +2070,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2080,7 +2086,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2113,7 +2119,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2146,7 +2152,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2163,7 +2169,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2179,7 +2185,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2189,14 +2195,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2205,31 +2211,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2238,20 +2244,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2278,7 +2284,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2288,14 +2294,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2304,14 +2310,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2321,14 +2327,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2337,31 +2343,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2370,28 +2376,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>48</v>
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2420,11 +2426,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>48</v>
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2486,11 +2492,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2535,14 +2541,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2552,14 +2558,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2575,7 +2581,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2585,11 +2591,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2618,14 +2624,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2667,14 +2673,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2717,11 +2723,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>48</v>
@@ -2733,28 +2739,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>48</v>
@@ -2766,7 +2772,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2779,15 +2785,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>48</v>
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,11 +2822,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>48</v>
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2849,11 +2855,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>48</v>
@@ -2865,14 +2871,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,14 +2921,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2931,14 +2937,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,14 +2954,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2964,7 +2970,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2981,11 +2987,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>48</v>
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,11 +3020,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>48</v>
@@ -3030,14 +3036,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3053,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>114</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,14 +3069,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,14 +3086,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3113,11 +3119,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3129,31 +3135,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3162,7 +3168,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3175,15 +3181,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>48</v>
@@ -3195,7 +3201,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3208,15 +3214,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>48</v>
@@ -3228,28 +3234,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>48</v>
@@ -3261,31 +3267,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>118</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3301,13 +3307,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3315,10 +3321,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,31 +3333,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,7 +3366,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3373,18 +3379,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>209</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3393,7 +3399,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3406,18 +3412,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>211</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>212</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3426,31 +3432,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3459,28 +3465,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>48</v>
@@ -3492,7 +3498,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3505,18 +3511,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>174</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3525,31 +3531,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3565,59 +3571,92 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>48</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3012.2550000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>223</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>224</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>169</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>106</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>199</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3047.2550000000001</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
         <v>225</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>226</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>227</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3971,10 +4010,15 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -239,13 +239,16 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:0</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>23.7600</t>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
@@ -359,9 +362,6 @@
     <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>288.00</t>
   </si>
   <si>
@@ -554,9 +554,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
     <t>50.4900</t>
   </si>
   <si>
@@ -641,10 +638,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>31.6000</t>
-  </si>
-  <si>
-    <t>15:1</t>
+    <t>33.6000</t>
+  </si>
+  <si>
+    <t>16:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -677,6 +674,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>لزق حبوب</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -686,7 +686,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:16 PM</t>
+    <t>Saturday, 7 June, 2025 10:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1938,7 +1938,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1964,11 +1964,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>48</v>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2030,11 +2030,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2046,14 +2046,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2063,11 +2063,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>48</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2096,11 +2096,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2129,11 +2129,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2162,11 +2162,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2195,11 +2195,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>48</v>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2257,15 +2257,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>48</v>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>48</v>
@@ -2310,14 +2310,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2327,11 +2327,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2343,14 +2343,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2389,7 +2389,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2785,7 +2785,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3076,7 +3076,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3090,10 +3090,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>116</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3102,14 +3102,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,11 +3119,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3152,11 +3152,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>22</v>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3181,15 +3181,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>48</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3214,15 +3214,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>48</v>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3247,15 +3247,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>48</v>
@@ -3267,28 +3267,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>48</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3313,11 +3313,11 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3333,28 +3333,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>48</v>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3379,15 +3379,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>22</v>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3412,18 +3412,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>211</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3445,18 +3445,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>213</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>214</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3478,15 +3478,15 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>48</v>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3511,15 +3511,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>48</v>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3544,11 +3544,11 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3564,28 +3564,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>48</v>
@@ -3597,66 +3597,99 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3047.2550000000001</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>224</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>169</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>107</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>198</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3106.1350000000002</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>225</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
         <v>226</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
         <v>227</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4015,10 +4048,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -65,30 +65,33 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -278,381 +278,408 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>EMETREX 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>FRESH COOL ORAL GEL 30ML</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>288.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>SERETIDE INHAELER 125/25 MC</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>228.0000</t>
+  </si>
+  <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SULBIN 1.5GM VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8694:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 10 سم</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ترمومتر  زيئبق </t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>ترمومتر ديجتال</t>
+  </si>
+  <si>
+    <t>جل هير كود 185 مل</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>48.00</t>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>35.6000</t>
+  </si>
+  <si>
+    <t>17:1</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>20.4000</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>غيار طبي غير لاصق 15*25 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
   </si>
   <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>EMETREX 20 TAB.</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>FRESH COOL ORAL GEL 30ML</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>288.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>HEDERA HELIX SYRAP</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>ISOMOISTY NASAL SPRAY 30 ML</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>19.8000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>SERETIDE INHAELER 125/25 MC</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>228.0000</t>
-  </si>
-  <si>
-    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SULBIN 1.5GM VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>VENTOCOUGH SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>50.4900</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8694:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ترمومتر  زيئبق </t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>ترمومتر ديجتال</t>
-  </si>
-  <si>
-    <t>جل هير كود 185 مل</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>ريكسونا بليه بودر دراي</t>
-  </si>
-  <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>33.6000</t>
-  </si>
-  <si>
-    <t>16:1</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>20.4000</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -686,7 +713,7 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:34 PM</t>
+    <t>Saturday, 7 June, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1360,7 +1387,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1370,14 +1397,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1426,7 +1453,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1436,11 +1463,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1452,7 +1479,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1469,11 +1496,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1485,14 +1512,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1667,7 +1694,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1822,7 +1849,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1839,7 +1866,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2070,7 +2097,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2367,7 +2394,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2680,7 +2707,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3043,7 +3070,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3076,7 +3103,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,14 +3113,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3102,14 +3129,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,14 +3146,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,14 +3162,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3175,13 +3202,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3189,10 +3216,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3201,14 +3228,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3218,11 +3245,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>48</v>
@@ -3274,7 +3301,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3284,11 +3311,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>48</v>
@@ -3300,14 +3327,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3317,14 +3344,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3333,14 +3360,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3350,11 +3377,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>48</v>
@@ -3366,7 +3393,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3383,14 +3410,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3399,14 +3426,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3416,14 +3443,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3432,7 +3459,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3449,14 +3476,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>213</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3465,14 +3492,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3482,14 +3509,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>48</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,7 +3525,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3515,14 +3542,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,14 +3558,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3548,14 +3575,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,14 +3591,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3581,11 +3608,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>48</v>
@@ -3597,14 +3624,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3614,11 +3641,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>48</v>
@@ -3630,14 +3657,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3647,49 +3674,148 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3106.1350000000002</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>225</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>226</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>227</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>230</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>207</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>107</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>108</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>231</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>232</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>107</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>147</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>233</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>169</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>107</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>202</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3462.6849999999999</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>234</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>235</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>236</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4053,10 +4179,25 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -713,7 +713,13 @@
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:37 PM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>Saturday, 7 June, 2025 10:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3784,38 +3790,71 @@
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3462.6849999999999</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>234</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
         <v>235</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>107</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>111</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3497.6849999999999</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
         <v>236</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>237</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>238</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4194,10 +4233,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -668,6 +668,15 @@
     <t>6:1</t>
   </si>
   <si>
+    <t>شامبو جونسون وسط</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>غيار طبي غير لاصق 15*25 سم</t>
   </si>
   <si>
@@ -719,7 +728,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:41 PM</t>
+    <t>Saturday, 7 June, 2025 10:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3571,7 +3580,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3581,14 +3590,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3597,14 +3606,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3621,7 +3630,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3637,7 +3646,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3680,14 +3689,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3696,14 +3705,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,14 +3722,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3729,14 +3738,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3746,11 +3755,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>48</v>
@@ -3762,14 +3771,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3779,11 +3788,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>48</v>
@@ -3795,14 +3804,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3812,49 +3821,82 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>237</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>238</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>107</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>111</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
         <v>87</v>
       </c>
-      <c t="s" r="Q81" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3497.6849999999999</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>236</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>237</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>238</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c t="s" r="Q82" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3582.6849999999999</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>239</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>240</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>241</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4238,10 +4280,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALERGOLIBER 10MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -329,6 +338,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FRESH COOL ORAL GEL 30ML</t>
   </si>
   <si>
@@ -398,12 +419,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>12.0000</t>
   </si>
   <si>
@@ -419,6 +443,15 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>MYOFEN 30 CAPS</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -449,6 +482,15 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>PHENADONE SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -458,6 +500,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -539,18 +587,12 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -578,6 +620,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZITHROMAX 500MG 3 F.C. TAB</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -635,12 +686,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>37.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -728,7 +773,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:44 PM</t>
+    <t>Saturday, 7 June, 2025 10:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1402,7 +1447,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1419,7 +1464,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1428,14 +1473,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1445,14 +1490,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1461,14 +1506,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1478,11 +1523,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1494,14 +1539,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1534,7 +1579,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1567,7 +1612,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1577,11 +1622,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1593,14 +1638,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1610,7 +1655,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1633,7 +1678,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1643,14 +1688,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1659,14 +1704,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1676,14 +1721,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1692,7 +1737,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1709,14 +1754,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1725,14 +1770,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1742,14 +1787,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1758,14 +1803,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1782,7 +1827,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1798,7 +1843,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1815,7 +1860,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1831,7 +1876,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1841,14 +1886,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1857,14 +1902,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1881,7 +1926,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1897,7 +1942,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1907,14 +1952,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1923,14 +1968,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1947,7 +1992,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1963,7 +2008,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1973,14 +2018,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1989,14 +2034,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2006,14 +2051,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2029,7 +2074,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2039,14 +2084,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2055,14 +2100,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2072,14 +2117,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2095,7 +2140,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2105,14 +2150,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2121,14 +2166,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2145,7 +2190,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2161,7 +2206,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2194,7 +2239,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2227,7 +2272,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2244,7 +2289,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2260,7 +2305,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2270,14 +2315,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2286,31 +2331,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2319,14 +2364,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2340,10 +2385,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2352,31 +2397,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2385,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2402,14 +2447,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2431,7 +2476,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2442,7 +2487,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2458,7 +2503,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2475,7 +2520,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2491,24 +2536,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2517,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2534,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2550,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2567,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2583,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2600,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2616,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2633,11 +2678,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2649,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2666,11 +2711,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2682,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2699,14 +2744,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2715,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2732,11 +2777,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2748,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2765,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2781,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2798,14 +2843,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2814,31 +2859,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2847,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2864,14 +2909,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2880,14 +2925,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2897,14 +2942,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2913,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2930,14 +2975,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2946,14 +2991,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2963,11 +3008,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2979,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2996,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3012,31 +3057,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3045,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3062,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3078,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3095,14 +3140,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3111,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3128,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3144,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3161,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3177,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3194,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3210,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3227,14 +3272,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3243,31 +3288,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3276,31 +3321,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3309,31 +3354,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3349,24 +3394,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3375,31 +3420,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3408,31 +3453,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3448,24 +3493,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3474,31 +3519,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3507,31 +3552,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>215</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3540,31 +3585,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>218</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3573,31 +3618,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3606,31 +3651,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3639,31 +3684,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3672,31 +3717,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3705,31 +3750,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3738,31 +3783,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>109</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>48</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3771,31 +3816,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>147</v>
+        <v>222</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>48</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3804,31 +3849,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>169</v>
+        <v>51</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3850,53 +3895,284 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>48</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3582.6849999999999</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>239</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>240</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>241</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>44</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>114</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>242</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>244</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>65</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>114</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>245</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>65</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>114</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>242</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>248</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>224</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>114</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>115</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>250</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>114</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>161</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>251</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>185</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>114</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>219</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>252</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>253</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>114</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>118</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3980.9450000000002</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>254</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>255</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>256</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4285,10 +4561,45 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -323,6 +323,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -494,9 +506,6 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -518,6 +527,18 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>SERETIDE INHAELER 125/25 MC</t>
   </si>
   <si>
@@ -773,7 +794,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:49 PM</t>
+    <t>Saturday, 7 June, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2305,7 +2326,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,14 +2336,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2348,14 +2369,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2364,14 +2385,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2381,7 +2402,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2404,13 +2425,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2421,7 +2442,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2437,21 +2458,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>51</v>
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,14 +2501,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2503,7 +2524,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2529,20 +2550,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2553,7 +2574,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2569,21 +2590,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>51</v>
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,11 +2633,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>51</v>
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,11 +2666,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>51</v>
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2682,10 +2703,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,11 +2732,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,14 +2798,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2793,14 +2814,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,11 +2831,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,11 +2864,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2859,14 +2880,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2883,7 +2904,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2899,7 +2920,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2946,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2963,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,11 +2996,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>51</v>
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3041,14 +3062,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3057,20 +3078,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3097,7 +3118,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,28 +3144,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>51</v>
@@ -3156,14 +3177,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,11 +3194,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>51</v>
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3227,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3260,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,11 +3326,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>36</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>25</v>
@@ -3321,7 +3342,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3338,11 +3359,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>51</v>
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3392,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3425,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3441,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3458,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3491,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>51</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3493,7 +3514,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,11 +3524,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3519,28 +3540,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>51</v>
@@ -3552,31 +3573,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,28 +3606,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>89</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>51</v>
@@ -3618,7 +3639,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3631,15 +3652,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>51</v>
@@ -3651,28 +3672,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>51</v>
@@ -3691,13 +3712,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3705,10 +3726,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>127</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,28 +3738,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>51</v>
@@ -3750,7 +3771,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3763,18 +3784,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>131</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,31 +3804,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>65</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>230</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,7 +3837,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3829,18 +3850,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>233</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,31 +3870,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>51</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,31 +3903,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3922,13 +3943,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3955,24 +3976,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,31 +4002,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>19</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,28 +4035,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>115</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>51</v>
@@ -4047,31 +4068,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,28 +4101,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>51</v>
@@ -4113,66 +4134,132 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>258</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>192</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>118</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>226</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>259</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>260</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>118</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>122</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>90</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3980.9450000000002</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>254</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>255</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>256</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c t="s" r="Q91" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>3991.835</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>261</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>262</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>263</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4596,10 +4683,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -83,6 +83,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ALTIAZEM 60MG 40 TAB</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -257,9 +269,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -512,9 +521,6 @@
     <t>PROXIMOL 0.4MG 40 TAB</t>
   </si>
   <si>
-    <t>17.0000</t>
-  </si>
-  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -530,13 +536,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:19</t>
+    <t>0:18</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>7.0500</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>SERETIDE INHAELER 125/25 MC</t>
@@ -794,7 +800,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:51 PM</t>
+    <t>Saturday, 7 June, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1606,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1610,11 +1616,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1626,14 +1632,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1643,11 +1649,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1659,14 +1665,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1676,11 +1682,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1692,14 +1698,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1709,11 +1715,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1725,14 +1731,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1749,7 +1755,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1782,7 +1788,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1791,14 +1797,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1808,14 +1814,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1824,7 +1830,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1841,14 +1847,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1864,7 +1870,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1874,14 +1880,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1890,14 +1896,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1907,14 +1913,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1923,14 +1929,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1947,7 +1953,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1963,7 +1969,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1973,14 +1979,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2013,7 +2019,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2029,7 +2035,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2039,14 +2045,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2055,14 +2061,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2079,7 +2085,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2088,14 +2094,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2112,7 +2118,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2128,7 +2134,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2138,14 +2144,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2154,14 +2160,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2171,14 +2177,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2194,7 +2200,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2204,14 +2210,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2220,14 +2226,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2244,7 +2250,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2260,7 +2266,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2293,7 +2299,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2326,7 +2332,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2336,11 +2342,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2352,14 +2358,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2376,7 +2382,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2392,7 +2398,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2402,14 +2408,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2418,14 +2424,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2435,11 +2441,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2451,31 +2457,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2484,20 +2490,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2505,10 +2511,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2517,14 +2523,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2538,10 +2544,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2574,7 +2580,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2590,24 +2596,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2616,20 +2622,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2640,7 +2646,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2656,7 +2662,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2673,7 +2679,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2689,7 +2695,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2699,14 +2705,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2736,10 +2742,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2765,11 +2771,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2798,14 +2804,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2814,14 +2820,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2831,14 +2837,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2864,7 +2870,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2887,7 +2893,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2920,7 +2926,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2930,14 +2936,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2970,7 +2976,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2986,7 +2992,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3003,7 +3009,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3019,7 +3025,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3029,14 +3035,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3045,14 +3051,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3066,10 +3072,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3078,14 +3084,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3095,14 +3101,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3111,14 +3117,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3144,31 +3150,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3177,31 +3183,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3210,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3227,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3243,14 +3249,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3260,14 +3266,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3276,14 +3282,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3293,14 +3299,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3326,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3359,14 +3365,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3375,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3415,7 +3421,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3429,10 +3435,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3448,7 +3454,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3462,10 +3468,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3474,14 +3480,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3491,14 +3497,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3514,7 +3520,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,11 +3530,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,14 +3563,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3613,24 +3619,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3646,24 +3652,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3672,31 +3678,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,31 +3711,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3738,31 +3744,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3771,31 +3777,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>131</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3811,24 +3817,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>51</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3844,24 +3850,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3870,31 +3876,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>237</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,31 +3909,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>239</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>240</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,31 +3942,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>51</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3969,31 +3975,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>245</v>
+        <v>55</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,31 +4008,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4035,31 +4041,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4068,31 +4074,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4101,31 +4107,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4134,31 +4140,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4174,24 +4180,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4200,66 +4206,99 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>122</v>
+        <v>228</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>90</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>3991.835</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>261</v>
       </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
         <v>262</v>
       </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>121</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>125</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4015.8850000000002</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
         <v>263</v>
       </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>264</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>265</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4693,10 +4732,15 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -152,6 +152,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEFIXIME 100MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>63.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -176,9 +188,6 @@
     <t>59.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -443,7 +452,7 @@
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
-    <t>60.0000</t>
+    <t>120.0000</t>
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
@@ -458,6 +467,15 @@
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/1000 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>214.50</t>
+  </si>
+  <si>
+    <t>214.5000</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -518,6 +536,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>PROXIMOL 0.4MG 40 TAB</t>
   </si>
   <si>
@@ -632,19 +659,22 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>50.4900</t>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>84.1500</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8694:0</t>
+    <t>8692:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>ZITHROMAX 500MG 3 F.C. TAB</t>
@@ -710,25 +740,19 @@
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
     <t>4.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>35.6000</t>
-  </si>
-  <si>
-    <t>17:1</t>
+    <t>41.6000</t>
+  </si>
+  <si>
+    <t>20:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -800,7 +824,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:52 PM</t>
+    <t>Saturday, 7 June, 2025 10:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1788,7 +1812,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1821,7 +1845,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1830,14 +1854,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1847,14 +1871,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1863,14 +1887,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1896,14 +1920,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1920,7 +1944,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1936,7 +1960,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1953,7 +1977,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1969,7 +1993,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1979,14 +2003,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1995,14 +2019,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2019,7 +2043,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2035,7 +2059,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2045,14 +2069,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2061,14 +2085,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2085,7 +2109,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2101,7 +2125,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2111,14 +2135,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2127,14 +2151,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2151,7 +2175,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2167,7 +2191,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2177,14 +2201,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2193,14 +2217,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,14 +2234,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2233,7 +2257,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2243,14 +2267,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2259,14 +2283,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2283,7 +2307,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2299,7 +2323,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2332,7 +2356,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2365,7 +2389,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2375,11 +2399,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2391,14 +2415,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2415,7 +2439,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2431,7 +2455,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,14 +2465,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2457,14 +2481,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,11 +2498,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2490,31 +2514,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2523,20 +2547,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2544,10 +2568,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,14 +2580,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2577,10 +2601,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2589,14 +2613,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2613,7 +2637,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2629,24 +2653,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2655,20 +2679,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2679,7 +2703,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2695,7 +2719,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2712,7 +2736,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2728,7 +2752,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2738,14 +2762,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2754,14 +2778,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2775,10 +2799,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2787,14 +2811,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2804,11 +2828,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2820,14 +2844,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2837,14 +2861,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2853,14 +2877,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,14 +2894,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2886,14 +2910,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,14 +2927,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2919,14 +2943,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2936,7 +2960,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2959,7 +2983,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2969,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2985,14 +3009,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3002,11 +3026,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3018,14 +3042,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3042,7 +3066,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3058,7 +3082,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,14 +3092,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3084,14 +3108,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,14 +3125,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3117,14 +3141,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,14 +3158,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3150,20 +3174,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>72</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3174,7 +3198,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3190,24 +3214,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3216,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3249,14 +3273,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3273,7 +3297,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3289,13 +3313,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3306,7 +3330,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3322,7 +3346,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3339,7 +3363,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3355,7 +3379,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,14 +3389,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3388,7 +3412,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3405,7 +3429,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3421,7 +3445,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3435,10 +3459,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,14 +3471,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,14 +3488,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3480,14 +3504,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3497,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3513,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3530,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3546,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3563,14 +3587,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3586,7 +3610,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3603,7 +3627,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3619,7 +3643,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3629,14 +3653,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3645,31 +3669,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3678,31 +3702,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3711,31 +3735,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3744,31 +3768,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>95</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3777,31 +3801,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3810,31 +3834,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>134</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,31 +3867,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>48</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,31 +3900,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>69</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,31 +3933,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>239</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3942,31 +3966,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>242</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3982,13 +4006,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3996,10 +4020,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,31 +4032,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,31 +4065,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>55</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,31 +4098,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4107,31 +4131,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,31 +4164,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>233</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>122</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4173,31 +4197,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>109</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4206,31 +4230,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4239,20 +4263,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4260,45 +4284,144 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4015.8850000000002</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>263</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>264</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>265</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>266</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>267</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>124</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>112</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>268</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>203</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>124</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>238</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>270</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>124</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>128</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4454.0450000000001</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>271</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>272</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>273</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4737,10 +4860,25 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -824,7 +824,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:58 PM</t>
+    <t>Saturday, 7 June, 2025 10:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -245,6 +245,15 @@
     <t>69.3000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -401,9 +410,6 @@
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>84.00</t>
   </si>
   <si>
@@ -458,7 +464,10 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>LARYPRO 20 LOZENGES</t>
@@ -533,9 +542,6 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -749,10 +755,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>41.6000</t>
-  </si>
-  <si>
-    <t>20:1</t>
+    <t>45.6000</t>
+  </si>
+  <si>
+    <t>22:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -824,7 +830,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 10:59 PM</t>
+    <t>Saturday, 7 June, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2102,14 +2108,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2118,14 +2124,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2142,7 +2148,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2158,7 +2164,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2168,14 +2174,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2184,14 +2190,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2208,7 +2214,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2224,7 +2230,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2234,14 +2240,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2250,14 +2256,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2290,7 +2296,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2300,14 +2306,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2340,7 +2346,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2356,7 +2362,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2389,7 +2395,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2422,7 +2428,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2432,11 +2438,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2472,7 +2478,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2488,7 +2494,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2531,11 +2537,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2547,31 +2553,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2580,20 +2586,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2601,7 +2607,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>48</v>
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2634,10 +2640,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2646,14 +2652,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2679,31 +2685,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2712,28 +2718,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>48</v>
@@ -2745,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2762,11 +2768,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>48</v>
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2818,7 +2824,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2835,7 +2841,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2851,7 +2857,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2927,11 +2933,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>48</v>
@@ -2950,7 +2956,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2960,14 +2966,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2976,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2993,7 +2999,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3016,7 +3022,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3049,7 +3055,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3059,14 +3065,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3099,7 +3105,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3115,7 +3121,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3132,7 +3138,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3148,7 +3154,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3158,11 +3164,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>48</v>
@@ -3174,28 +3180,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>48</v>
@@ -3207,31 +3213,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3257,14 +3263,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3306,31 +3312,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3339,7 +3345,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3352,15 +3358,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>48</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>48</v>
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>48</v>
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3577,7 +3583,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3591,10 +3597,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3610,7 +3616,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3624,7 +3630,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>48</v>
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,14 +3659,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3775,24 +3781,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3808,21 +3814,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>48</v>
@@ -3834,7 +3840,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3847,15 +3853,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>48</v>
@@ -3867,7 +3873,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3880,15 +3886,15 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>48</v>
@@ -3900,28 +3906,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>48</v>
@@ -3933,31 +3939,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>137</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3973,24 +3979,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,31 +4005,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>174</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4045,18 +4051,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>247</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,7 +4071,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4078,18 +4084,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>249</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>250</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4098,31 +4104,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>48</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,31 +4137,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>255</v>
+        <v>48</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,31 +4170,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4197,28 +4203,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>48</v>
@@ -4230,7 +4236,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4243,18 +4249,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4263,31 +4269,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>125</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4296,28 +4302,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>48</v>
@@ -4336,21 +4342,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>238</v>
+        <v>115</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>48</v>
@@ -4362,66 +4368,99 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>96</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>48</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4454.0450000000001</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>271</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
         <v>272</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>127</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>131</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4493.8050000000003</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
         <v>273</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>274</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>275</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4875,10 +4914,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:00 PM</t>
+    <t>Saturday, 7 June, 2025 11:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -509,6 +509,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -518,9 +527,6 @@
     <t>19.00</t>
   </si>
   <si>
-    <t>19.0000</t>
-  </si>
-  <si>
     <t>PETRO 30 TAB</t>
   </si>
   <si>
@@ -830,7 +836,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:04 PM</t>
+    <t>Saturday, 7 June, 2025 11:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3088,7 +3094,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3098,14 +3104,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3114,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3135,10 +3141,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,14 +3170,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3180,14 +3186,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,11 +3203,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>48</v>
@@ -3213,28 +3219,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>48</v>
@@ -3246,31 +3252,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3279,14 +3285,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3296,14 +3302,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3312,14 +3318,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,14 +3335,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3345,31 +3351,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,7 +3384,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3391,15 +3397,15 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>48</v>
@@ -3411,14 +3417,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,11 +3434,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>48</v>
@@ -3444,14 +3450,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,11 +3467,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>48</v>
@@ -3477,14 +3483,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3494,14 +3500,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3533,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,14 +3549,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3566,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3599,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3616,7 +3622,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3630,10 +3636,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>19</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3649,7 +3655,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3663,7 +3669,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>48</v>
@@ -3675,14 +3681,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>40</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>40</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3747,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3774,14 +3780,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3814,24 +3820,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3847,7 +3853,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,11 +3863,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>98</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>48</v>
@@ -3873,7 +3879,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3890,11 +3896,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>48</v>
@@ -3906,7 +3912,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3923,11 +3929,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>48</v>
@@ -3939,14 +3945,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,11 +3962,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>48</v>
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>72</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +3995,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>139</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4012,7 +4018,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4061,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>176</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4088,14 +4094,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>249</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,7 +4110,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4121,14 +4127,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>250</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>251</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>252</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,14 +4143,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,14 +4160,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>48</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,14 +4193,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4220,14 +4226,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,14 +4242,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4253,11 +4259,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>48</v>
@@ -4269,7 +4275,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4286,14 +4292,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,14 +4308,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>218</v>
+        <v>72</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,14 +4325,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4352,11 +4358,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>48</v>
@@ -4375,7 +4381,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,11 +4391,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>240</v>
+        <v>115</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>48</v>
@@ -4401,14 +4407,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,49 +4424,82 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>273</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>274</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>127</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>131</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
         <v>99</v>
       </c>
-      <c t="s" r="Q96" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4493.8050000000003</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>273</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>274</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c t="s" r="Q97" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4512.8050000000003</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
         <v>275</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>276</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>277</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4919,10 +4958,15 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -836,7 +836,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:07 PM</t>
+    <t>Saturday, 7 June, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -749,6 +749,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>حنه فاتيكا بني 1 كيس</t>
+  </si>
+  <si>
     <t>ريكسونا بليه بودر دراي</t>
   </si>
   <si>
@@ -836,7 +839,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:11 PM</t>
+    <t>Saturday, 7 June, 2025 11:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>48</v>
@@ -4084,7 +4087,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,7 +4113,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>251</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,7 +4146,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>48</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4292,11 +4295,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>48</v>
@@ -4308,7 +4311,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4325,14 +4328,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4348,7 +4351,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4381,7 +4384,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>48</v>
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,11 +4427,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>48</v>
@@ -4447,7 +4450,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,49 +4460,82 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>274</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>275</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>127</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>131</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>99</v>
       </c>
-      <c t="s" r="Q97" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4512.8050000000003</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
-        <v>275</v>
-      </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
+      <c t="s" r="Q98" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4547.8050000000003</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
         <v>276</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
         <v>277</v>
       </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>278</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4963,10 +4999,15 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -668,6 +668,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -704,6 +710,12 @@
     <t>96.00</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 10 سم</t>
   </si>
   <si>
@@ -734,112 +746,112 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>28:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>حنه فاتيكا بني 1 كيس</t>
+  </si>
+  <si>
+    <t>ريكسونا بليه بودر دراي</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>45.6000</t>
+  </si>
+  <si>
+    <t>22:1</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>23.4000</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>شامبو جونسون وسط</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>غيار طبي غير لاصق 15*25 سم</t>
+  </si>
+  <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>لزق حبوب</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>حنه فاتيكا بني 1 كيس</t>
-  </si>
-  <si>
-    <t>ريكسونا بليه بودر دراي</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>45.6000</t>
-  </si>
-  <si>
-    <t>22:1</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>20.4000</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>شامبو جونسون وسط</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>غيار طبي غير لاصق 15*25 سم</t>
-  </si>
-  <si>
-    <t>-2:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>لزق حبوب</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 25 مل</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:12 PM</t>
+    <t>Saturday, 7 June, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3724,7 +3736,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3746,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3750,14 +3762,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3767,14 +3779,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3783,14 +3795,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>72</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3816,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,14 +3845,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3856,24 +3868,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3889,21 +3901,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>48</v>
@@ -3915,14 +3927,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,11 +3944,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>48</v>
@@ -3988,7 +4000,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3998,11 +4010,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>48</v>
@@ -4014,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,14 +4043,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>186</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>139</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,14 +4059,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,14 +4076,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4087,7 +4099,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,14 +4109,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,14 +4125,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4130,14 +4142,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4153,7 +4165,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>72</v>
+        <v>222</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4163,14 +4175,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>252</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,7 +4191,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4196,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>255</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4229,14 +4241,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>48</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4245,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,14 +4274,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>56</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4278,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4295,11 +4307,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>48</v>
@@ -4311,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4328,14 +4340,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4344,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4361,14 +4373,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4377,14 +4389,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4394,11 +4406,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>128</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>48</v>
@@ -4410,14 +4422,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4427,14 +4439,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>115</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>48</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4450,7 +4462,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4460,11 +4472,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>48</v>
@@ -4493,49 +4505,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>276</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>207</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>127</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>246</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>278</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>279</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>127</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>131</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>99</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4547.8050000000003</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>276</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>277</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>278</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c t="s" r="Q100" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4708.2049999999999</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>280</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>281</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>282</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5004,10 +5082,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOROFEN 30 CAPS.</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
     <t>EMETREX 20 TAB.</t>
   </si>
   <si>
@@ -638,6 +647,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
@@ -851,7 +869,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:14 PM</t>
+    <t>Saturday, 7 June, 2025 11:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2400,7 +2418,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2416,7 +2434,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2449,7 +2467,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2482,7 +2500,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,11 +2510,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2508,14 +2526,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2532,7 +2550,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2548,7 +2566,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2558,14 +2576,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2574,14 +2592,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2591,11 +2609,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2607,31 +2625,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2640,20 +2658,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2661,7 +2679,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>48</v>
@@ -2673,14 +2691,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2690,14 +2708,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2713,7 +2731,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2730,7 +2748,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2746,24 +2764,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2772,20 +2790,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2812,7 +2830,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2845,7 +2863,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2855,14 +2873,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2871,14 +2889,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2895,7 +2913,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2911,7 +2929,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2921,14 +2939,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,14 +2955,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,14 +2972,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,11 +3005,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>48</v>
@@ -3010,7 +3028,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3036,14 +3054,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,7 +3071,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3076,7 +3094,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3109,7 +3127,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3142,7 +3160,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,14 +3170,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3175,7 +3193,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3185,14 +3203,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3208,7 +3226,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3225,7 +3243,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3241,7 +3259,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3251,11 +3269,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>48</v>
@@ -3267,28 +3285,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>48</v>
@@ -3307,24 +3325,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,14 +3351,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3350,14 +3368,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3366,14 +3384,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,14 +3401,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3399,20 +3417,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3423,7 +3441,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3445,7 +3463,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3472,7 +3490,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3505,7 +3523,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3538,7 +3556,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3555,7 +3573,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3571,7 +3589,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3581,14 +3599,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3604,7 +3622,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,14 +3632,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3637,7 +3655,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3651,10 +3669,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3663,7 +3681,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3680,11 +3698,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>48</v>
@@ -3696,14 +3714,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,14 +3731,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3747,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,14 +3764,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3762,14 +3780,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,14 +3797,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3795,14 +3813,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,14 +3830,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3828,14 +3846,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,14 +3863,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3861,14 +3879,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3882,10 +3900,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,7 +3912,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3911,11 +3929,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>48</v>
@@ -3927,31 +3945,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3960,28 +3978,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>48</v>
@@ -3993,28 +4011,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>98</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>48</v>
@@ -4026,7 +4044,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4039,15 +4057,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>48</v>
@@ -4059,31 +4077,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>48</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4099,13 +4117,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4113,10 +4131,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>139</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,31 +4143,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4158,31 +4176,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>48</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4191,31 +4209,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4224,31 +4242,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>72</v>
+        <v>228</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>255</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4257,7 +4275,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4270,18 +4288,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>258</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4297,24 +4315,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>261</v>
-      </c>
-      <c t="s" r="Q92" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4330,24 +4348,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>56</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4356,28 +4374,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>48</v>
@@ -4389,20 +4407,20 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4413,7 +4431,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4429,24 +4447,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>170</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4455,28 +4473,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>222</v>
+        <v>72</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>129</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>48</v>
@@ -4488,31 +4506,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>29</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4521,28 +4539,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>48</v>
@@ -4554,66 +4572,132 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>282</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>210</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>130</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>252</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>284</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>285</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>130</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>134</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>99</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4708.2049999999999</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>280</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>281</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>282</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>4985.2049999999999</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>286</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>287</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>288</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5092,10 +5176,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>153.0000</t>
   </si>
   <si>
+    <t>DULOXEPRIN 60MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>214.00</t>
+  </si>
+  <si>
+    <t>107.0000</t>
+  </si>
+  <si>
     <t>EMETREX 20 TAB.</t>
   </si>
   <si>
@@ -557,6 +566,9 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -602,6 +614,15 @@
     <t>228.0000</t>
   </si>
   <si>
+    <t>SOFENACIN 10MG 20 F.C.TAB</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>61.0000</t>
+  </si>
+  <si>
     <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
@@ -665,6 +686,12 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 20 * 0.4ML SDU</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
@@ -674,9 +701,6 @@
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -824,9 +848,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -869,7 +890,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:19 PM</t>
+    <t>Saturday, 7 June, 2025 11:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2434,7 +2455,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2467,7 +2488,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2500,7 +2521,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2533,7 +2554,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2543,11 +2564,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2559,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2583,7 +2604,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2599,7 +2620,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2609,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2625,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,11 +2663,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2658,31 +2679,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2691,20 +2712,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2712,7 +2733,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>48</v>
@@ -2724,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2764,7 +2785,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2781,7 +2802,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2797,24 +2818,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2823,20 +2844,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2863,7 +2884,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2896,7 +2917,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2927,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2922,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2946,7 +2967,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2962,7 +2983,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2972,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2988,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,14 +3026,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3021,14 +3042,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3038,11 +3059,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>63</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>48</v>
@@ -3061,7 +3082,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,14 +3092,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3087,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,7 +3125,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3127,7 +3148,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3160,7 +3181,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3193,7 +3214,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,14 +3224,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3226,7 +3247,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3259,7 +3280,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3276,7 +3297,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3292,7 +3313,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>48</v>
@@ -3318,31 +3339,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3351,31 +3372,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3441,7 +3462,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3457,24 +3478,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>72</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3483,7 +3504,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3496,15 +3517,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>48</v>
@@ -3516,14 +3537,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3554,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>48</v>
@@ -3582,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3632,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3648,7 +3669,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3665,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3681,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>48</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3698,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3714,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3731,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3747,7 +3768,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3764,11 +3785,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>48</v>
@@ -3780,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3797,11 +3818,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>48</v>
@@ -3813,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3830,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3846,14 +3867,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,14 +3884,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3886,7 +3907,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3912,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,14 +3950,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3945,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3978,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4011,28 +4032,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>98</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>48</v>
@@ -4044,31 +4065,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4077,28 +4098,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>48</v>
@@ -4110,28 +4131,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>98</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>48</v>
@@ -4143,20 +4164,20 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>48</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4164,10 +4185,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,31 +4197,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>142</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4216,21 +4237,21 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>99</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>48</v>
@@ -4242,31 +4263,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>180</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4275,7 +4296,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4288,18 +4309,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>29</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,31 +4329,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>261</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,31 +4362,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>72</v>
+        <v>236</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>264</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4381,13 +4402,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4395,10 +4416,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4407,31 +4428,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>56</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4440,31 +4461,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>48</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,28 +4494,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>48</v>
@@ -4506,31 +4527,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>72</v>
+        <v>277</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>173</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4546,21 +4567,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>228</v>
+        <v>52</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>48</v>
@@ -4572,31 +4593,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4605,31 +4626,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>48</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4638,20 +4659,20 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4659,45 +4680,144 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>287</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>288</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>133</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>121</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>289</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>217</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>133</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>260</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>290</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
         <v>99</v>
       </c>
-      <c t="s" r="Q102" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>4985.2049999999999</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>286</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>287</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>288</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>291</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>292</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>133</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>137</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5207.2049999999999</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>293</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>294</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>295</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5186,10 +5306,25 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:20 PM</t>
+    <t>Saturday, 7 June, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:24 PM</t>
+    <t>Saturday, 7 June, 2025 11:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:29 PM</t>
+    <t>Saturday, 7 June, 2025 11:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -74,63 +74,66 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>57.4200</t>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ALTIAZEM 60MG 40 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>ALTIAZEM 60MG 40 TAB</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -155,9 +158,6 @@
     <t>CEFIXIME 100MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -194,6 +194,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -350,6 +359,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>ERASTAPEX TRIO 10/40/25MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -641,6 +662,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>SPINOBAC 5MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>STREPTOQUIN 20 TABLETS</t>
   </si>
   <si>
@@ -698,6 +725,12 @@
     <t>23.00</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VENTOCOUGH SYRUP 125 ML</t>
   </si>
   <si>
@@ -737,6 +770,24 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>ZITHROMAX 500MG 3 F.C. TAB</t>
   </si>
   <si>
@@ -812,6 +863,9 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -824,10 +878,10 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>23.4000</t>
-  </si>
-  <si>
-    <t>7:1</t>
+    <t>35.4000</t>
+  </si>
+  <si>
+    <t>11:1</t>
   </si>
   <si>
     <t>شامبو جونسون وسط</t>
@@ -890,7 +944,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:30 PM</t>
+    <t>Saturday, 7 June, 2025 11:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1597,7 +1651,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1607,14 +1661,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1623,14 +1677,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1762,7 +1816,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1772,11 +1826,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1788,7 +1842,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1809,7 +1863,7 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1821,7 +1875,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1838,11 +1892,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1854,14 +1908,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1878,7 +1932,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1944,7 +1998,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1960,7 +2014,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1993,7 +2047,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2003,14 +2057,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2019,14 +2073,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2043,7 +2097,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2059,7 +2113,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2076,7 +2130,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2092,7 +2146,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2102,14 +2156,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2118,14 +2172,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2142,7 +2196,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2158,7 +2212,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2168,14 +2222,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2201,14 +2255,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2217,14 +2271,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2241,7 +2295,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2257,7 +2311,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2321,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2283,14 +2337,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2307,7 +2361,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2323,7 +2377,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2333,14 +2387,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2349,14 +2403,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2366,14 +2420,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2389,7 +2443,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2399,14 +2453,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2415,14 +2469,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2439,7 +2493,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2455,7 +2509,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2472,7 +2526,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2488,7 +2542,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2521,7 +2575,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2554,7 +2608,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2571,7 +2625,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2580,14 +2634,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2620,7 +2674,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2637,7 +2691,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2653,7 +2707,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,11 +2717,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2679,14 +2733,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,14 +2750,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2712,31 +2766,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2745,14 +2799,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2766,10 +2820,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2778,31 +2832,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2865,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2828,14 +2882,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2844,20 +2898,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2868,7 +2922,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2884,7 +2938,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2901,7 +2955,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2917,24 +2971,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2943,14 +2997,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2960,14 +3014,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2976,14 +3030,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,14 +3047,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3009,14 +3063,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,14 +3080,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3042,14 +3096,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,14 +3113,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3075,7 +3129,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3092,14 +3146,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3108,14 +3162,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,14 +3179,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3141,14 +3195,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3212,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,14 +3228,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,11 +3245,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3207,14 +3261,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,11 +3278,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3240,14 +3294,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3261,10 +3315,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,14 +3327,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,11 +3344,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3306,14 +3360,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3377,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,14 +3393,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,14 +3410,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,31 +3426,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,14 +3459,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,14 +3476,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,31 +3492,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,14 +3525,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3542,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,20 +3558,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3528,7 +3582,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3544,7 +3598,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,14 +3608,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,31 +3624,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3603,14 +3657,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3674,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3690,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3707,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3723,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3740,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3756,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3773,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3742,7 +3796,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3759,7 +3813,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3775,7 +3829,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3792,7 +3846,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3808,7 +3862,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3872,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3888,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3905,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,14 +3921,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3938,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3954,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3971,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,14 +3987,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +4004,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +4020,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,14 +4037,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,14 +4053,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,14 +4070,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,14 +4086,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4103,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4119,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,14 +4136,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>156</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4098,14 +4152,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,14 +4169,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4138,24 +4192,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,31 +4218,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,31 +4251,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,31 +4284,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,28 +4317,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>56</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>29</v>
@@ -4296,31 +4350,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,31 +4383,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,31 +4416,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,31 +4449,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4428,31 +4482,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>269</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,31 +4515,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>272</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,31 +4548,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>48</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,31 +4581,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,31 +4614,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>189</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4600,13 +4654,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4617,7 +4671,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4633,24 +4687,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>176</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4659,31 +4713,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>134</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>135</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>48</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,31 +4746,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>121</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,31 +4779,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4758,66 +4812,264 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>99</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5207.2049999999999</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>293</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>294</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>295</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>300</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>75</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>140</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>301</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>303</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>75</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>140</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>298</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>304</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>247</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>140</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>141</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>305</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>306</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>140</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>128</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>307</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>226</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>140</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>277</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>309</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>310</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>140</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>144</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5567.6450000000004</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>311</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>312</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>313</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5321,10 +5573,40 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -71,12 +71,24 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>ALL-VENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -119,6 +131,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ANTODINE 40MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -179,9 +203,6 @@
     <t>CEFZIM 1 GM VIAL</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>59.00</t>
   </si>
   <si>
@@ -395,21 +416,12 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>3.8400</t>
   </si>
   <si>
     <t>FENISTIL 1MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
   </si>
   <si>
@@ -446,6 +458,9 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -506,9 +521,6 @@
     <t>3:4</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -560,9 +572,6 @@
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -584,6 +593,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>PHENYTOIN-AIT SPRAY 150 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -608,12 +626,6 @@
     <t>0:5</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -812,9 +824,6 @@
     <t>بلاستر مترسيلك 10 سم</t>
   </si>
   <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ترمومتر  زيئبق </t>
   </si>
   <si>
@@ -944,7 +953,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:42 PM</t>
+    <t>Saturday, 7 June, 2025 11:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1701,7 +1710,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1783,7 +1792,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1793,11 +1802,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1809,14 +1818,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1826,14 +1835,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1859,11 +1868,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1892,11 +1901,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1925,14 +1934,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1958,14 +1967,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1974,14 +1983,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1998,7 +2007,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2014,7 +2023,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2057,14 +2066,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2090,14 +2099,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2130,7 +2139,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2146,7 +2155,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2196,7 +2205,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2212,7 +2221,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2229,7 +2238,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2295,7 +2304,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2311,7 +2320,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2321,7 +2330,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2377,7 +2386,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2394,7 +2403,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2410,7 +2419,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2420,14 +2429,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2469,14 +2478,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2486,7 +2495,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2509,7 +2518,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2526,7 +2535,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2542,7 +2551,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2552,14 +2561,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2568,7 +2577,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2585,14 +2594,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2601,14 +2610,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2618,14 +2627,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2641,7 +2650,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2674,7 +2683,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2691,7 +2700,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2700,14 +2709,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2740,7 +2749,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2757,7 +2766,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2773,7 +2782,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2783,11 +2792,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2799,14 +2808,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2816,14 +2825,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2832,31 +2841,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2865,14 +2874,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2898,31 +2907,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2931,7 +2940,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2964,31 +2973,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3030,31 +3039,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3063,14 +3072,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3103,7 +3112,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3113,14 +3122,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3136,7 +3145,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3162,14 +3171,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3179,14 +3188,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3195,7 +3204,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3235,7 +3244,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3245,14 +3254,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3294,14 +3303,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3311,11 +3320,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3327,14 +3336,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3344,11 +3353,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3360,14 +3369,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3377,14 +3386,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3443,14 +3452,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3476,14 +3485,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3492,31 +3501,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3565,7 +3574,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3591,31 +3600,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3624,31 +3633,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3690,14 +3699,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3723,31 +3732,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3756,14 +3765,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3773,14 +3782,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3806,14 +3815,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3839,14 +3848,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3888,14 +3897,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3938,14 +3947,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3954,14 +3963,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>19</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4103,14 +4112,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4119,14 +4128,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4136,11 +4145,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4152,14 +4161,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4169,14 +4178,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4185,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4202,14 +4211,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4218,14 +4227,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4235,14 +4244,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4251,14 +4260,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4268,14 +4277,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>49</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4284,14 +4293,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4301,11 +4310,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4334,14 +4343,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4350,14 +4359,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4367,14 +4376,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4383,31 +4392,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>101</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4416,7 +4425,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4429,18 +4438,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4449,31 +4458,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4482,31 +4491,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>108</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4515,31 +4524,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4548,31 +4557,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>152</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4581,31 +4590,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>102</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4614,31 +4623,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4647,31 +4656,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4680,31 +4689,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>287</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4713,31 +4722,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>290</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4746,28 +4755,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4779,31 +4788,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>56</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4812,31 +4821,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4845,31 +4854,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4878,31 +4887,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>183</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4911,31 +4920,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>142</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4944,31 +4953,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>192</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4977,31 +4986,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>308</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5010,66 +5019,165 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5567.6450000000004</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>308</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>309</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>144</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>42</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>310</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>230</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>144</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>280</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>311</v>
       </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
+      <c t="s" r="Q113" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>312</v>
       </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>313</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>144</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>148</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>5702.6450000000004</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>314</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>315</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>316</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5603,10 +5711,25 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -569,6 +569,12 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>95.0400</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -953,7 +959,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:44 PM</t>
+    <t>Saturday, 7 June, 2025 11:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3442,7 +3448,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3452,14 +3458,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3475,7 +3481,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3489,10 +3495,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3501,14 +3507,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3518,14 +3524,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3534,14 +3540,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3551,11 +3557,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3567,14 +3573,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3584,14 +3590,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3607,24 +3613,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3633,31 +3639,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3666,14 +3672,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3683,14 +3689,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>22</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3716,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3732,31 +3738,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3765,31 +3771,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3798,14 +3804,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3815,14 +3821,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3831,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3848,11 +3854,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>24</v>
@@ -3864,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3881,11 +3887,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>67</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>24</v>
@@ -3904,7 +3910,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3918,7 +3924,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>24</v>
@@ -3930,14 +3936,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3947,14 +3953,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3963,14 +3969,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3980,14 +3986,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3996,14 +4002,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4013,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4029,14 +4035,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4046,11 +4052,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>24</v>
@@ -4062,7 +4068,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4079,11 +4085,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>24</v>
@@ -4102,7 +4108,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4116,10 +4122,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4135,7 +4141,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4145,14 +4151,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4168,7 +4174,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4178,14 +4184,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>100</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>19</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4194,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4211,11 +4217,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>24</v>
@@ -4227,14 +4233,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4244,14 +4250,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4267,7 +4273,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4277,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4293,14 +4299,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4310,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>49</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4326,14 +4332,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4343,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4359,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4376,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4392,14 +4398,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4409,11 +4415,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>24</v>
@@ -4425,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4442,14 +4448,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4465,7 +4471,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4475,14 +4481,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4498,21 +4504,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>24</v>
@@ -4524,14 +4530,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4541,11 +4547,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>24</v>
@@ -4557,7 +4563,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4574,11 +4580,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>24</v>
@@ -4590,7 +4596,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4607,11 +4613,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>24</v>
@@ -4623,14 +4629,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4640,14 +4646,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4656,14 +4662,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>82</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4677,10 +4683,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>196</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>157</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4696,7 +4702,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4706,14 +4712,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>24</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4722,14 +4728,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4739,11 +4745,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>24</v>
@@ -4755,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4772,14 +4778,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4788,7 +4794,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4805,14 +4811,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4821,7 +4827,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4838,14 +4844,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>292</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>293</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4854,14 +4860,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4871,14 +4877,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>24</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4887,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>298</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4904,14 +4910,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4920,14 +4926,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4941,10 +4947,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4953,14 +4959,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4970,11 +4976,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>24</v>
@@ -4986,7 +4992,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5003,14 +5009,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5019,14 +5025,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>251</v>
+        <v>82</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5036,14 +5042,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5052,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,14 +5075,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5092,7 +5098,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5102,14 +5108,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5125,7 +5131,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>232</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5135,49 +5141,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
         <v>109</v>
       </c>
-      <c t="s" r="Q114" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>5702.6450000000004</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>314</v>
       </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
         <v>315</v>
       </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>144</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>148</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>5797.6850000000004</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
         <v>316</v>
       </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>317</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>318</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5726,10 +5765,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -959,7 +959,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:46 PM</t>
+    <t>Saturday, 7 June, 2025 11:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -827,6 +827,9 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 10 سم</t>
   </si>
   <si>
@@ -959,7 +962,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:57 PM</t>
+    <t>Saturday, 7 June, 2025 11:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4537,7 +4540,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,11 +4550,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>24</v>
@@ -4570,7 +4573,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4580,11 +4583,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>24</v>
@@ -4596,7 +4599,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4613,11 +4616,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>24</v>
@@ -4646,11 +4649,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>24</v>
@@ -4662,14 +4665,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,14 +4682,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4695,14 +4698,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,14 +4715,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>198</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>157</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4728,14 +4731,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,14 +4748,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>148</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>24</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4778,11 +4781,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>24</v>
@@ -4801,7 +4804,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,14 +4814,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4827,7 +4830,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4844,14 +4847,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>292</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4860,7 +4863,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4877,14 +4880,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,14 +4896,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,14 +4913,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>24</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,14 +4929,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>24</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,14 +4946,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4959,14 +4962,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>60</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,14 +4979,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4992,14 +4995,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,11 +5012,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>24</v>
@@ -5025,7 +5028,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5042,14 +5045,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>146</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5065,7 +5068,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,14 +5078,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>145</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5098,7 +5101,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,14 +5111,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5124,14 +5127,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,14 +5144,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5157,14 +5160,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,49 +5177,82 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>148</v>
+        <v>283</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>315</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>316</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>144</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>148</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
         <v>109</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>5797.6850000000004</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>316</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
+      <c t="s" r="Q116" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5827.6850000000004</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
         <v>317</v>
       </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
         <v>318</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>319</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5770,10 +5806,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-07_00-00.xlsx
+++ b/DaySale_2025-06-07_00-00.xlsx
@@ -962,7 +962,7 @@
     <t>11:0</t>
   </si>
   <si>
-    <t>Saturday, 7 June, 2025 11:58 PM</t>
+    <t>Saturday, 7 June, 2025 11:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
